--- a/image/substancereferenceinformation.xlsx
+++ b/image/substancereferenceinformation.xlsx
@@ -631,42 +631,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.08203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.1875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.41015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/substancereferenceinformation.xlsx
+++ b/image/substancereferenceinformation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="151">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -327,10 +327,6 @@
   </si>
   <si>
     <t>SubstanceReferenceInformation.comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>SubstanceReferenceInformation.gene</t>
@@ -631,42 +627,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.1875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.41015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1720,7 +1716,7 @@
         <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>40</v>
@@ -1797,7 +1793,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1820,7 +1816,7 @@
         <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>40</v>
@@ -1877,7 +1873,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1889,7 +1885,7 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>37</v>
@@ -1897,7 +1893,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1920,13 +1916,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1977,7 +1973,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1992,12 +1988,12 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2026,7 +2022,7 @@
         <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>93</v>
@@ -2079,7 +2075,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -2094,16 +2090,16 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2125,10 +2121,10 @@
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>93</v>
@@ -2183,7 +2179,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2203,7 +2199,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2226,7 +2222,7 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>40</v>
@@ -2283,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2303,7 +2299,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2326,7 +2322,7 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>40</v>
@@ -2383,7 +2379,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2403,7 +2399,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2426,7 +2422,7 @@
         <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>40</v>
@@ -2483,7 +2479,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2503,7 +2499,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2526,7 +2522,7 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>40</v>
@@ -2583,7 +2579,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2595,7 +2591,7 @@
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>37</v>
@@ -2603,7 +2599,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2626,13 +2622,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2683,7 +2679,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2698,12 +2694,12 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2732,7 +2728,7 @@
         <v>91</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>93</v>
@@ -2785,7 +2781,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -2800,16 +2796,16 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -2831,10 +2827,10 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>93</v>
@@ -2889,7 +2885,7 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
@@ -2909,7 +2905,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2932,7 +2928,7 @@
         <v>46</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>40</v>
@@ -2989,7 +2985,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
@@ -3009,7 +3005,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3032,7 +3028,7 @@
         <v>46</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>40</v>
@@ -3089,7 +3085,7 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
@@ -3109,7 +3105,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3132,7 +3128,7 @@
         <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>40</v>
@@ -3189,7 +3185,7 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
@@ -3209,7 +3205,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3232,7 +3228,7 @@
         <v>46</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>40</v>
@@ -3289,7 +3285,7 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>38</v>
@@ -3301,7 +3297,7 @@
         <v>37</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>37</v>
@@ -3309,7 +3305,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3332,13 +3328,13 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3389,7 +3385,7 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
@@ -3404,12 +3400,12 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3438,7 +3434,7 @@
         <v>91</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>93</v>
@@ -3491,7 +3487,7 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>38</v>
@@ -3506,16 +3502,16 @@
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -3537,10 +3533,10 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>93</v>
@@ -3595,7 +3591,7 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>38</v>
@@ -3615,7 +3611,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3638,7 +3634,7 @@
         <v>46</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>40</v>
@@ -3695,7 +3691,7 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>38</v>
@@ -3715,7 +3711,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3738,7 +3734,7 @@
         <v>46</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>40</v>
@@ -3795,7 +3791,7 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
@@ -3815,7 +3811,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3838,7 +3834,7 @@
         <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>40</v>
@@ -3895,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>38</v>
@@ -3915,7 +3911,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -3938,7 +3934,7 @@
         <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>40</v>
@@ -3995,7 +3991,7 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>38</v>
@@ -4015,7 +4011,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4038,7 +4034,7 @@
         <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>40</v>
@@ -4095,7 +4091,7 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>38</v>
@@ -4107,7 +4103,7 @@
         <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>37</v>
@@ -4115,7 +4111,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4138,13 +4134,13 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4195,7 +4191,7 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
@@ -4210,12 +4206,12 @@
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4244,7 +4240,7 @@
         <v>91</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>93</v>
@@ -4297,7 +4293,7 @@
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>38</v>
@@ -4312,16 +4308,16 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -4343,10 +4339,10 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>93</v>
@@ -4401,7 +4397,7 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>38</v>
@@ -4421,7 +4417,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4444,7 +4440,7 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>40</v>
@@ -4501,7 +4497,7 @@
         <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>38</v>
@@ -4521,7 +4517,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4544,7 +4540,7 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>40</v>
@@ -4601,7 +4597,7 @@
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>38</v>
@@ -4621,7 +4617,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4644,7 +4640,7 @@
         <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>40</v>
@@ -4701,7 +4697,7 @@
         <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>38</v>
@@ -4721,7 +4717,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4744,7 +4740,7 @@
         <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>40</v>
@@ -4801,7 +4797,7 @@
         <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>38</v>
@@ -4821,7 +4817,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4844,7 +4840,7 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>40</v>
@@ -4901,7 +4897,7 @@
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>38</v>
@@ -4921,7 +4917,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -4944,7 +4940,7 @@
         <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>40</v>
@@ -5001,7 +4997,7 @@
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>38</v>
@@ -5021,7 +5017,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5044,7 +5040,7 @@
         <v>46</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>40</v>
@@ -5101,7 +5097,7 @@
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>38</v>
@@ -5121,7 +5117,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5144,7 +5140,7 @@
         <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>40</v>
@@ -5201,7 +5197,7 @@
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>38</v>
